--- a/Checklists/Mobile_App_Security_Checklist-Japanese_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Japanese_1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BDE180-1297-7244-BA78-FC54BA802168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DB856B-D68E-9849-868C-DB79073DD00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="424">
   <si>
     <t>ID</t>
   </si>
@@ -1880,6 +1880,9 @@
   </si>
   <si>
     <t>Testing Obfuscation (MSTG-RESILIENCE-9)</t>
+  </si>
+  <si>
+    <t>1.1.3-excel</t>
   </si>
 </sst>
 </file>
@@ -3180,143 +3183,143 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -3384,49 +3387,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -4622,7 +4583,7 @@
   <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -4636,48 +4597,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="140"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="140"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="152"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="140"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
     </row>
     <row r="8" spans="2:4" hidden="1">
-      <c r="B8" s="143"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="155"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="13" t="s">
@@ -4687,19 +4648,19 @@
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="142"/>
       <c r="D11" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="17">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="141" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="63" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -4709,91 +4670,91 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="16">
-        <v>1.2</v>
+      <c r="C13" s="142"/>
+      <c r="D13" s="16" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17">
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="134"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="63" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
 MSTG_VERSION,
 "/Document/"))</f>
-        <v>https://github.com/OWASP/owasp-mstg/blob/1.2/Document/</v>
+        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="32" customHeight="1">
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="151"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="136"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="134"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="134"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1">
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="134"/>
+      <c r="C22" s="142"/>
       <c r="D22" s="16" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="13" t="s">
@@ -4810,37 +4771,37 @@
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="134"/>
+      <c r="C26" s="142"/>
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="134"/>
+      <c r="C27" s="142"/>
       <c r="D27" s="16"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="134"/>
+      <c r="C28" s="142"/>
       <c r="D28" s="16"/>
     </row>
     <row r="29" spans="2:4" ht="52" customHeight="1">
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="134"/>
+      <c r="C29" s="142"/>
       <c r="D29" s="16"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="144"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="13" t="s">
@@ -4857,37 +4818,37 @@
       <c r="D32" s="16"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="133" t="s">
+      <c r="B33" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="134"/>
+      <c r="C33" s="142"/>
       <c r="D33" s="16"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="133" t="s">
+      <c r="B34" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="134"/>
+      <c r="C34" s="142"/>
       <c r="D34" s="16"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="133" t="s">
+      <c r="B35" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="134"/>
+      <c r="C35" s="142"/>
       <c r="D35" s="16"/>
     </row>
     <row r="36" spans="2:4" ht="52" customHeight="1">
-      <c r="B36" s="156" t="s">
+      <c r="B36" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="134"/>
+      <c r="C36" s="142"/>
       <c r="D36" s="16"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="13" t="s">
@@ -4897,97 +4858,100 @@
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="152"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="154"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="140"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="155"/>
+      <c r="C40" s="137"/>
       <c r="D40" s="19"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="136" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="155"/>
+      <c r="C41" s="137"/>
       <c r="D41" s="19"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="135" t="s">
+      <c r="B42" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="155"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="19"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="135" t="s">
+      <c r="B43" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="155"/>
+      <c r="C43" s="137"/>
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="135" t="s">
+      <c r="B44" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="155"/>
+      <c r="C44" s="137"/>
       <c r="D44" s="19"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="152"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="154"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="140"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="135" t="s">
+      <c r="B46" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="155"/>
+      <c r="C46" s="137"/>
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="135" t="s">
+      <c r="B47" s="136" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="155"/>
+      <c r="C47" s="137"/>
       <c r="D47" s="19"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="155"/>
+      <c r="C48" s="137"/>
       <c r="D48" s="19"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="135" t="s">
+      <c r="B49" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="155"/>
+      <c r="C49" s="137"/>
       <c r="D49" s="20"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="135" t="s">
+      <c r="B50" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="155"/>
+      <c r="C50" s="137"/>
       <c r="D50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -5002,19 +4966,16 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5060,11 +5021,11 @@
       <c r="F3" s="24"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1">
       <c r="B5" s="25"/>
@@ -5079,16 +5040,16 @@
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="170" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="158"/>
-      <c r="I6" s="159"/>
-      <c r="V6" s="157" t="s">
+      <c r="H6" s="171"/>
+      <c r="I6" s="172"/>
+      <c r="V6" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="158"/>
-      <c r="X6" s="159"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="172"/>
     </row>
     <row r="7" spans="2:24" ht="16" thickBot="1">
       <c r="B7" s="27"/>
@@ -5103,18 +5064,18 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="160">
+      <c r="G8" s="161">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="162"/>
-      <c r="V8" s="160">
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
+      <c r="V8" s="161">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="161"/>
-      <c r="X8" s="162"/>
+      <c r="W8" s="162"/>
+      <c r="X8" s="163"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1">
       <c r="B9" s="26"/>
@@ -5122,12 +5083,12 @@
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="165"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="165"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="166"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="166"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1">
       <c r="B10" s="27"/>
@@ -5135,12 +5096,12 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="165"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="166"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="166"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="B11" s="27"/>
@@ -5148,19 +5109,19 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="168"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="167"/>
-      <c r="X11" s="168"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="169"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="169"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1">
-      <c r="B12" s="169"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="28"/>
@@ -5184,11 +5145,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1">
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="28"/>
@@ -5236,18 +5197,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
     <row r="41" spans="3:11">
-      <c r="D41" s="170" t="s">
+      <c r="D41" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="170" t="s">
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="172"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="176"/>
     </row>
     <row r="42" spans="3:11">
       <c r="D42" s="32" t="s">
@@ -5573,15 +5534,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="F14">
@@ -5594,7 +5555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5608,7 +5569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5645,18 +5606,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
     </row>
     <row r="2" spans="2:11">
       <c r="H2" s="77"/>
@@ -5682,11 +5643,11 @@
       <c r="G3" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="175" t="s">
+      <c r="H3" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
       <c r="K3" s="41" t="s">
         <v>185</v>
       </c>
@@ -8406,11 +8367,11 @@
       <c r="G3" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="175" t="s">
+      <c r="H3" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
       <c r="K3" s="41" t="s">
         <v>185</v>
       </c>
@@ -10514,12 +10475,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H28 H33:H1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10693,7 +10654,7 @@
       <c r="F8" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="179" t="s">
+      <c r="G8" s="134" t="s">
         <v>420</v>
       </c>
       <c r="H8" s="70"/>
@@ -10714,7 +10675,7 @@
       <c r="F9" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="179" t="s">
+      <c r="G9" s="134" t="s">
         <v>421</v>
       </c>
       <c r="H9" s="70"/>
@@ -10735,7 +10696,7 @@
       <c r="F10" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="178"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="70"/>
     </row>
     <row r="11" spans="2:8" ht="32">
@@ -10754,7 +10715,7 @@
       <c r="F11" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="180" t="s">
+      <c r="G11" s="135" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="70"/>
@@ -10775,7 +10736,7 @@
       <c r="F12" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="180" t="s">
+      <c r="G12" s="135" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="70"/>
@@ -10796,7 +10757,7 @@
       <c r="F13" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="134" t="s">
         <v>422</v>
       </c>
       <c r="H13" s="70"/>
@@ -11104,10 +11065,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="179"/>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -11543,10 +11504,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="177"/>
+      <c r="B1" s="180"/>
       <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:5">

--- a/Checklists/Mobile_App_Security_Checklist-Japanese_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Japanese_1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathis_hesse\Documents\Git\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DB856B-D68E-9849-868C-DB79073DD00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDCE5D5-2E34-4456-9990-1B55D6EEF37B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="608" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -28,13 +28,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Security Requirements - Android'!$B$3:$K$81</definedName>
     <definedName name="BASE_URL">Dashboard!$D$14</definedName>
-    <definedName name="MASVS_VERSION" localSheetId="7">[1]Dashboard!$D$11</definedName>
-    <definedName name="MASVS_VERSION">Dashboard!$D$11</definedName>
-    <definedName name="MSTG_VERSION">Dashboard!$D$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Security Requirements - Android'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Security Requirements - iOS'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'Version history'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'Version history (Japanese)'!$1:$2</definedName>
+    <definedName name="MASVS_VERSION" localSheetId="7">[1]Dashboard!$D$11</definedName>
+    <definedName name="MASVS_VERSION">Dashboard!$D$11</definedName>
+    <definedName name="MSTG_VERSION">Dashboard!$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,9 +44,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -57,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="424">
   <si>
     <t>ID</t>
   </si>
@@ -3260,7 +3258,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3288,15 +3294,6 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3309,6 +3306,7 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3323,69 +3321,69 @@
     </xf>
   </cellXfs>
   <cellStyles count="63">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3449,7 +3447,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3643,7 +3641,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918959216"/>
@@ -3689,7 +3687,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918956896"/>
@@ -3729,7 +3727,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3759,7 +3757,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3773,7 +3771,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3961,7 +3959,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920829984"/>
@@ -4007,7 +4005,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920827664"/>
@@ -4047,7 +4045,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4077,7 +4075,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4582,20 +4580,20 @@
   </sheetPr>
   <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="12"/>
-    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="12"/>
+    <col min="1" max="1" width="1.796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="12"/>
+    <col min="3" max="3" width="13.69921875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="70.69921875" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="8" customHeight="1"/>
+    <row r="1" spans="2:4" ht="7.95" customHeight="1"/>
     <row r="2" spans="2:4">
       <c r="B2" s="147" t="s">
         <v>139</v>
@@ -4656,7 +4654,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="17">
+    <row r="12" spans="2:4">
       <c r="B12" s="141" t="s">
         <v>215</v>
       </c>
@@ -4678,7 +4676,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17">
+    <row r="14" spans="2:4">
       <c r="B14" s="141" t="s">
         <v>141</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="32" customHeight="1">
+    <row r="15" spans="2:4" ht="31.95" customHeight="1">
       <c r="B15" s="157" t="s">
         <v>142</v>
       </c>
@@ -4791,7 +4789,7 @@
       <c r="C28" s="142"/>
       <c r="D28" s="16"/>
     </row>
-    <row r="29" spans="2:4" ht="52" customHeight="1">
+    <row r="29" spans="2:4" ht="52.05" customHeight="1">
       <c r="B29" s="145" t="s">
         <v>155</v>
       </c>
@@ -4838,7 +4836,7 @@
       <c r="C35" s="142"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="2:4" ht="52" customHeight="1">
+    <row r="36" spans="2:4" ht="52.05" customHeight="1">
       <c r="B36" s="145" t="s">
         <v>159</v>
       </c>
@@ -4993,18 +4991,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="1.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="21" customWidth="1"/>
     <col min="4" max="11" width="9" style="21" customWidth="1"/>
-    <col min="12" max="21" width="4.6640625" style="21" customWidth="1"/>
-    <col min="22" max="16384" width="8.6640625" style="21"/>
+    <col min="12" max="21" width="4.69921875" style="21" customWidth="1"/>
+    <col min="22" max="16384" width="8.69921875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" thickBot="1"/>
-    <row r="2" spans="2:24" ht="16" thickBot="1">
+    <row r="1" spans="2:24" ht="15" thickBot="1"/>
+    <row r="2" spans="2:24" ht="15" thickBot="1">
       <c r="B2" s="22"/>
       <c r="C2" s="23" t="s">
         <v>166</v>
@@ -5021,74 +5019,74 @@
       <c r="F3" s="24"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-    </row>
-    <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1">
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+    </row>
+    <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1">
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="2:24" ht="19" customHeight="1" thickBot="1">
+    <row r="6" spans="2:24" ht="19.05" customHeight="1" thickBot="1">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="170" t="s">
+      <c r="G6" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="171"/>
-      <c r="I6" s="172"/>
-      <c r="V6" s="170" t="s">
+      <c r="H6" s="161"/>
+      <c r="I6" s="162"/>
+      <c r="V6" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="171"/>
-      <c r="X6" s="172"/>
-    </row>
-    <row r="7" spans="2:24" ht="16" thickBot="1">
+      <c r="W6" s="161"/>
+      <c r="X6" s="162"/>
+    </row>
+    <row r="7" spans="2:24" ht="15" thickBot="1">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
     </row>
-    <row r="8" spans="2:24" ht="16" customHeight="1">
+    <row r="8" spans="2:24" ht="16.05" customHeight="1">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="161">
+      <c r="G8" s="163">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="163"/>
-      <c r="V8" s="161">
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="V8" s="163">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="162"/>
-      <c r="X8" s="163"/>
-    </row>
-    <row r="9" spans="2:24" ht="91" customHeight="1">
+      <c r="W8" s="164"/>
+      <c r="X8" s="165"/>
+    </row>
+    <row r="9" spans="2:24" ht="91.05" customHeight="1">
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="166"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="168"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="168"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1">
       <c r="B10" s="27"/>
@@ -5096,12 +5094,12 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="166"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="168"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="168"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="B11" s="27"/>
@@ -5109,19 +5107,19 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="169"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="169"/>
-    </row>
-    <row r="12" spans="2:24" ht="16" customHeight="1">
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="171"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="171"/>
+    </row>
+    <row r="12" spans="2:24" ht="16.05" customHeight="1">
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="28"/>
@@ -5144,12 +5142,12 @@
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="2:24" ht="16" customHeight="1">
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
+    <row r="16" spans="2:24" ht="16.05" customHeight="1">
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="28"/>
@@ -5197,18 +5195,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
     <row r="41" spans="3:11">
-      <c r="D41" s="174" t="s">
+      <c r="D41" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="174" t="s">
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="175"/>
-      <c r="J41" s="175"/>
-      <c r="K41" s="176"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="175"/>
     </row>
     <row r="42" spans="3:11">
       <c r="D42" s="32" t="s">
@@ -5534,15 +5532,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="F14">
@@ -5586,26 +5584,28 @@
   </sheetPr>
   <dimension ref="B1:M94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="1.5" style="75" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="76" customWidth="1"/>
-    <col min="4" max="4" width="97.1640625" style="39" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="75" customWidth="1"/>
-    <col min="8" max="8" width="101.6640625" style="114" customWidth="1"/>
-    <col min="9" max="9" width="83.6640625" style="114" customWidth="1"/>
-    <col min="10" max="10" width="71.1640625" style="114" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="75"/>
-    <col min="13" max="14" width="10.6640625" style="75" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="75"/>
+    <col min="2" max="2" width="7.796875" style="76" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" style="76" customWidth="1"/>
+    <col min="4" max="4" width="97.19921875" style="39" customWidth="1"/>
+    <col min="5" max="6" width="6.69921875" style="75" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="75" customWidth="1"/>
+    <col min="8" max="8" width="101.69921875" style="114" customWidth="1"/>
+    <col min="9" max="9" width="83.69921875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="71.19921875" style="114" customWidth="1"/>
+    <col min="11" max="11" width="30.69921875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" style="75"/>
+    <col min="13" max="14" width="10.69921875" style="75" customWidth="1"/>
+    <col min="15" max="16384" width="10.796875" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="177" t="s">
         <v>179</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
     </row>
-    <row r="3" spans="2:11" ht="32">
+    <row r="3" spans="2:11" ht="28.8">
       <c r="B3" s="78" t="s">
         <v>0</v>
       </c>
@@ -5702,7 +5702,7 @@
       <c r="J5" s="87"/>
       <c r="K5" s="70"/>
     </row>
-    <row r="6" spans="2:11" ht="32">
+    <row r="6" spans="2:11">
       <c r="B6" s="60" t="s">
         <v>112</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="J6" s="89"/>
       <c r="K6" s="70"/>
     </row>
-    <row r="7" spans="2:11" ht="32">
+    <row r="7" spans="2:11" ht="28.8">
       <c r="B7" s="60" t="s">
         <v>111</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="J9" s="87"/>
       <c r="K9" s="70"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11">
       <c r="B10" s="60" t="s">
         <v>108</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="70"/>
     </row>
-    <row r="11" spans="2:11" ht="17">
+    <row r="11" spans="2:11">
       <c r="B11" s="60" t="s">
         <v>4</v>
       </c>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="K11" s="70"/>
     </row>
-    <row r="12" spans="2:11" ht="32">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="60" t="s">
         <v>107</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="47"/>
     </row>
-    <row r="18" spans="2:11" ht="32">
+    <row r="18" spans="2:11" ht="28.8">
       <c r="B18" s="60" t="s">
         <v>7</v>
       </c>
@@ -6054,7 +6054,7 @@
       <c r="J18" s="87"/>
       <c r="K18" s="70"/>
     </row>
-    <row r="19" spans="2:11" ht="17">
+    <row r="19" spans="2:11">
       <c r="B19" s="60" t="s">
         <v>39</v>
       </c>
@@ -6064,8 +6064,12 @@
       <c r="D19" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
+      <c r="E19" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="85"/>
       <c r="H19" s="88" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
@@ -6100,7 +6104,7 @@
       <c r="J20" s="87"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="2:11" ht="17">
+    <row r="21" spans="2:11">
       <c r="B21" s="60" t="s">
         <v>8</v>
       </c>
@@ -6125,7 +6129,7 @@
       <c r="J21" s="87"/>
       <c r="K21" s="70"/>
     </row>
-    <row r="22" spans="2:11" ht="17">
+    <row r="22" spans="2:11">
       <c r="B22" s="60" t="s">
         <v>41</v>
       </c>
@@ -6150,7 +6154,7 @@
       <c r="J22" s="87"/>
       <c r="K22" s="70"/>
     </row>
-    <row r="23" spans="2:11" ht="17">
+    <row r="23" spans="2:11">
       <c r="B23" s="60" t="s">
         <v>9</v>
       </c>
@@ -6275,7 +6279,7 @@
       <c r="J27" s="87"/>
       <c r="K27" s="70"/>
     </row>
-    <row r="28" spans="2:11" ht="32">
+    <row r="28" spans="2:11" ht="28.8">
       <c r="B28" s="60" t="s">
         <v>43</v>
       </c>
@@ -6303,7 +6307,7 @@
       <c r="J28" s="87"/>
       <c r="K28" s="70"/>
     </row>
-    <row r="29" spans="2:11" ht="32">
+    <row r="29" spans="2:11" ht="28.8">
       <c r="B29" s="60" t="s">
         <v>13</v>
       </c>
@@ -6328,7 +6332,7 @@
       <c r="J29" s="87"/>
       <c r="K29" s="70"/>
     </row>
-    <row r="30" spans="2:11" ht="32">
+    <row r="30" spans="2:11" ht="28.8">
       <c r="B30" s="60" t="s">
         <v>323</v>
       </c>
@@ -6350,7 +6354,7 @@
       <c r="J30" s="87"/>
       <c r="K30" s="70"/>
     </row>
-    <row r="31" spans="2:11" ht="32">
+    <row r="31" spans="2:11" ht="28.8">
       <c r="B31" s="60" t="s">
         <v>324</v>
       </c>
@@ -6438,7 +6442,7 @@
       <c r="J34" s="87"/>
       <c r="K34" s="70"/>
     </row>
-    <row r="35" spans="2:13" ht="34">
+    <row r="35" spans="2:13" ht="31.2">
       <c r="B35" s="60" t="s">
         <v>16</v>
       </c>
@@ -6466,7 +6470,7 @@
       <c r="J35" s="87"/>
       <c r="K35" s="70"/>
     </row>
-    <row r="36" spans="2:13" ht="34">
+    <row r="36" spans="2:13" ht="31.2">
       <c r="B36" s="60" t="s">
         <v>17</v>
       </c>
@@ -6494,7 +6498,7 @@
       <c r="J36" s="87"/>
       <c r="K36" s="70"/>
     </row>
-    <row r="37" spans="2:13" ht="34">
+    <row r="37" spans="2:13" ht="31.2">
       <c r="B37" s="60" t="s">
         <v>18</v>
       </c>
@@ -6588,7 +6592,7 @@
       <c r="J40" s="96"/>
       <c r="K40" s="47"/>
     </row>
-    <row r="41" spans="2:13" ht="32">
+    <row r="41" spans="2:13" ht="28.8">
       <c r="B41" s="60" t="s">
         <v>22</v>
       </c>
@@ -6619,7 +6623,7 @@
       </c>
       <c r="K41" s="70"/>
     </row>
-    <row r="42" spans="2:13" ht="32">
+    <row r="42" spans="2:13" ht="28.8">
       <c r="B42" s="60" t="s">
         <v>44</v>
       </c>
@@ -6644,7 +6648,7 @@
       <c r="J42" s="87"/>
       <c r="K42" s="70"/>
     </row>
-    <row r="43" spans="2:13" ht="32">
+    <row r="43" spans="2:13" ht="28.8">
       <c r="B43" s="60" t="s">
         <v>45</v>
       </c>
@@ -6683,8 +6687,12 @@
       <c r="D44" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
+      <c r="E44" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>3</v>
+      </c>
       <c r="G44" s="85"/>
       <c r="H44" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -6720,7 +6728,7 @@
       <c r="J45" s="87"/>
       <c r="K45" s="70"/>
     </row>
-    <row r="46" spans="2:13" ht="17">
+    <row r="46" spans="2:13">
       <c r="B46" s="60" t="s">
         <v>46</v>
       </c>
@@ -6748,7 +6756,7 @@
       <c r="J46" s="87"/>
       <c r="K46" s="70"/>
     </row>
-    <row r="47" spans="2:13" ht="32">
+    <row r="47" spans="2:13" ht="28.8">
       <c r="B47" s="60" t="s">
         <v>47</v>
       </c>
@@ -6773,7 +6781,7 @@
       <c r="J47" s="100"/>
       <c r="K47" s="72"/>
     </row>
-    <row r="48" spans="2:13" ht="32">
+    <row r="48" spans="2:13" ht="28.8">
       <c r="B48" s="60" t="s">
         <v>25</v>
       </c>
@@ -6798,7 +6806,7 @@
       <c r="J48" s="87"/>
       <c r="K48" s="70"/>
     </row>
-    <row r="49" spans="2:11" ht="32">
+    <row r="49" spans="2:11" ht="28.8">
       <c r="B49" s="60" t="s">
         <v>26</v>
       </c>
@@ -6848,7 +6856,7 @@
       <c r="J50" s="87"/>
       <c r="K50" s="70"/>
     </row>
-    <row r="51" spans="2:11" ht="48">
+    <row r="51" spans="2:11" ht="43.2">
       <c r="B51" s="60" t="s">
         <v>91</v>
       </c>
@@ -6911,7 +6919,7 @@
       <c r="J53" s="96"/>
       <c r="K53" s="47"/>
     </row>
-    <row r="54" spans="2:11" ht="32">
+    <row r="54" spans="2:11" ht="28.8">
       <c r="B54" s="60" t="s">
         <v>29</v>
       </c>
@@ -6936,7 +6944,7 @@
       <c r="J54" s="87"/>
       <c r="K54" s="70"/>
     </row>
-    <row r="55" spans="2:11" ht="48">
+    <row r="55" spans="2:11" ht="43.2">
       <c r="B55" s="60" t="s">
         <v>48</v>
       </c>
@@ -6961,7 +6969,7 @@
       <c r="J55" s="87"/>
       <c r="K55" s="70"/>
     </row>
-    <row r="56" spans="2:11" ht="32">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="60" t="s">
         <v>30</v>
       </c>
@@ -6986,7 +6994,7 @@
       <c r="J56" s="88"/>
       <c r="K56" s="73"/>
     </row>
-    <row r="57" spans="2:11" ht="32">
+    <row r="57" spans="2:11" ht="28.8">
       <c r="B57" s="60" t="s">
         <v>49</v>
       </c>
@@ -7014,7 +7022,7 @@
       <c r="J57" s="87"/>
       <c r="K57" s="70"/>
     </row>
-    <row r="58" spans="2:11" ht="32">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="60" t="s">
         <v>31</v>
       </c>
@@ -7105,7 +7113,7 @@
       <c r="J61" s="87"/>
       <c r="K61" s="70"/>
     </row>
-    <row r="62" spans="2:11" ht="32">
+    <row r="62" spans="2:11" ht="28.8">
       <c r="B62" s="60" t="s">
         <v>51</v>
       </c>
@@ -7133,7 +7141,7 @@
       <c r="J62" s="87"/>
       <c r="K62" s="70"/>
     </row>
-    <row r="63" spans="2:11" ht="32">
+    <row r="63" spans="2:11" ht="28.8">
       <c r="B63" s="60" t="s">
         <v>52</v>
       </c>
@@ -7208,7 +7216,7 @@
       <c r="J65" s="87"/>
       <c r="K65" s="70"/>
     </row>
-    <row r="66" spans="2:12" ht="32">
+    <row r="66" spans="2:12" ht="28.8">
       <c r="B66" s="60" t="s">
         <v>55</v>
       </c>
@@ -7233,7 +7241,7 @@
       <c r="J66" s="87"/>
       <c r="K66" s="70"/>
     </row>
-    <row r="67" spans="2:12" ht="32">
+    <row r="67" spans="2:12" ht="28.8">
       <c r="B67" s="60" t="s">
         <v>104</v>
       </c>
@@ -7258,7 +7266,7 @@
       <c r="J67" s="87"/>
       <c r="K67" s="70"/>
     </row>
-    <row r="68" spans="2:12" ht="32">
+    <row r="68" spans="2:12" ht="28.8">
       <c r="B68" s="60" t="s">
         <v>103</v>
       </c>
@@ -7305,7 +7313,7 @@
       <c r="J69" s="87"/>
       <c r="K69" s="70"/>
     </row>
-    <row r="70" spans="2:12" ht="32">
+    <row r="70" spans="2:12" ht="28.8">
       <c r="B70" s="60" t="s">
         <v>371</v>
       </c>
@@ -7327,7 +7335,7 @@
       <c r="J70" s="87"/>
       <c r="K70" s="70"/>
     </row>
-    <row r="71" spans="2:12" ht="32">
+    <row r="71" spans="2:12">
       <c r="B71" s="60" t="s">
         <v>372</v>
       </c>
@@ -7440,7 +7448,7 @@
       <c r="J75" s="87"/>
       <c r="K75" s="70"/>
     </row>
-    <row r="76" spans="2:12" ht="32">
+    <row r="76" spans="2:12" ht="28.8">
       <c r="B76" s="60" t="s">
         <v>58</v>
       </c>
@@ -7465,7 +7473,7 @@
       <c r="J76" s="87"/>
       <c r="K76" s="70"/>
     </row>
-    <row r="77" spans="2:12" ht="32">
+    <row r="77" spans="2:12" ht="28.8">
       <c r="B77" s="60" t="s">
         <v>59</v>
       </c>
@@ -7566,7 +7574,7 @@
       <c r="K80" s="74"/>
       <c r="L80" s="103"/>
     </row>
-    <row r="81" spans="2:11" ht="32">
+    <row r="81" spans="2:11" ht="28.8">
       <c r="B81" s="60" t="s">
         <v>93</v>
       </c>
@@ -7653,7 +7661,7 @@
       <c r="J86" s="110"/>
       <c r="K86" s="45"/>
     </row>
-    <row r="87" spans="2:11" ht="32">
+    <row r="87" spans="2:11" ht="28.8">
       <c r="B87" s="112" t="s">
         <v>200</v>
       </c>
@@ -7796,20 +7804,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="1.5" style="75" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="76" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="76" customWidth="1"/>
-    <col min="4" max="4" width="97.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="69.1640625" style="114" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="39" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="75"/>
+    <col min="2" max="2" width="7.19921875" style="76" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="76" customWidth="1"/>
+    <col min="4" max="4" width="97.19921875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="2.796875" style="75" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="75" customWidth="1"/>
+    <col min="7" max="7" width="69.19921875" style="114" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="39" customWidth="1"/>
+    <col min="9" max="16384" width="10.796875" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="115" t="s">
         <v>194</v>
       </c>
@@ -7865,7 +7873,7 @@
       <c r="G4" s="96"/>
       <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="2:8" ht="32">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="60" t="s">
         <v>113</v>
       </c>
@@ -7887,7 +7895,7 @@
       </c>
       <c r="H5" s="70"/>
     </row>
-    <row r="6" spans="2:8" ht="32">
+    <row r="6" spans="2:8" ht="28.8">
       <c r="B6" s="60" t="s">
         <v>114</v>
       </c>
@@ -7931,7 +7939,7 @@
       </c>
       <c r="H7" s="70"/>
     </row>
-    <row r="8" spans="2:8" ht="32">
+    <row r="8" spans="2:8" ht="28.8">
       <c r="B8" s="60" t="s">
         <v>116</v>
       </c>
@@ -7997,7 +8005,7 @@
       </c>
       <c r="H10" s="70"/>
     </row>
-    <row r="11" spans="2:8" ht="32">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="60" t="s">
         <v>119</v>
       </c>
@@ -8018,7 +8026,7 @@
       </c>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="2:8" ht="17">
+    <row r="12" spans="2:8">
       <c r="B12" s="60" t="s">
         <v>120</v>
       </c>
@@ -8072,7 +8080,7 @@
       <c r="G14" s="96"/>
       <c r="H14" s="47"/>
     </row>
-    <row r="15" spans="2:8" ht="32">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="61" t="s">
         <v>60</v>
       </c>
@@ -8105,7 +8113,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="47"/>
     </row>
-    <row r="17" spans="2:8" ht="48">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="60" t="s">
         <v>121</v>
       </c>
@@ -8127,7 +8135,7 @@
       </c>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8" ht="64">
+    <row r="18" spans="2:8" ht="57.6">
       <c r="B18" s="60" t="s">
         <v>122</v>
       </c>
@@ -8159,7 +8167,7 @@
       <c r="G19" s="96"/>
       <c r="H19" s="47"/>
     </row>
-    <row r="20" spans="2:8" ht="32">
+    <row r="20" spans="2:8" ht="28.8">
       <c r="B20" s="60" t="s">
         <v>397</v>
       </c>
@@ -8218,7 +8226,7 @@
       <c r="G24" s="110"/>
       <c r="H24" s="45"/>
     </row>
-    <row r="25" spans="2:8" ht="32">
+    <row r="25" spans="2:8" ht="28.8">
       <c r="B25" s="112" t="s">
         <v>200</v>
       </c>
@@ -8316,25 +8324,27 @@
   </sheetPr>
   <dimension ref="B1:M94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="1.5" style="120" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="121" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="121" customWidth="1"/>
-    <col min="4" max="4" width="97.1640625" style="54" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" style="120" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="120" customWidth="1"/>
-    <col min="8" max="8" width="91.6640625" style="114" customWidth="1"/>
-    <col min="9" max="10" width="75.33203125" style="114" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="54" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="120"/>
-    <col min="13" max="14" width="10.6640625" style="120" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="120"/>
+    <col min="2" max="2" width="7.796875" style="121" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" style="121" customWidth="1"/>
+    <col min="4" max="4" width="97.19921875" style="54" customWidth="1"/>
+    <col min="5" max="6" width="6.69921875" style="120" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="120" customWidth="1"/>
+    <col min="8" max="8" width="91.69921875" style="114" customWidth="1"/>
+    <col min="9" max="10" width="75.296875" style="114" customWidth="1"/>
+    <col min="11" max="11" width="30.69921875" style="54" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" style="120"/>
+    <col min="13" max="14" width="10.69921875" style="120" customWidth="1"/>
+    <col min="15" max="16384" width="10.796875" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="119" t="s">
         <v>205</v>
       </c>
@@ -8348,7 +8358,7 @@
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
     </row>
-    <row r="3" spans="2:11" ht="32">
+    <row r="3" spans="2:11" ht="28.8">
       <c r="B3" s="78" t="s">
         <v>0</v>
       </c>
@@ -8420,7 +8430,7 @@
       <c r="J5" s="87"/>
       <c r="K5" s="70"/>
     </row>
-    <row r="6" spans="2:11" ht="32">
+    <row r="6" spans="2:11">
       <c r="B6" s="60" t="s">
         <v>112</v>
       </c>
@@ -8451,7 +8461,7 @@
       <c r="J6" s="89"/>
       <c r="K6" s="70"/>
     </row>
-    <row r="7" spans="2:11" ht="32">
+    <row r="7" spans="2:11" ht="28.8">
       <c r="B7" s="60" t="s">
         <v>111</v>
       </c>
@@ -8535,7 +8545,7 @@
       <c r="J9" s="87"/>
       <c r="K9" s="70"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11">
       <c r="B10" s="60" t="s">
         <v>108</v>
       </c>
@@ -8563,7 +8573,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="70"/>
     </row>
-    <row r="11" spans="2:11" ht="17">
+    <row r="11" spans="2:11">
       <c r="B11" s="60" t="s">
         <v>4</v>
       </c>
@@ -8597,7 +8607,7 @@
       <c r="J11" s="88"/>
       <c r="K11" s="70"/>
     </row>
-    <row r="12" spans="2:11" ht="32">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="60" t="s">
         <v>107</v>
       </c>
@@ -8741,7 +8751,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="47"/>
     </row>
-    <row r="18" spans="2:12" ht="32">
+    <row r="18" spans="2:12" ht="28.8">
       <c r="B18" s="60" t="s">
         <v>7</v>
       </c>
@@ -8776,8 +8786,12 @@
       <c r="D19" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
+      <c r="E19" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="85"/>
       <c r="H19" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
@@ -8862,7 +8876,7 @@
       <c r="J22" s="87"/>
       <c r="K22" s="70"/>
     </row>
-    <row r="23" spans="2:12" ht="17">
+    <row r="23" spans="2:12">
       <c r="B23" s="60" t="s">
         <v>9</v>
       </c>
@@ -8987,7 +9001,7 @@
       <c r="J27" s="87"/>
       <c r="K27" s="70"/>
     </row>
-    <row r="28" spans="2:12" ht="32">
+    <row r="28" spans="2:12" ht="28.8">
       <c r="B28" s="60" t="s">
         <v>43</v>
       </c>
@@ -9013,7 +9027,7 @@
       <c r="K28" s="70"/>
       <c r="L28" s="122"/>
     </row>
-    <row r="29" spans="2:12" ht="32">
+    <row r="29" spans="2:12" ht="28.8">
       <c r="B29" s="60" t="s">
         <v>13</v>
       </c>
@@ -9039,7 +9053,7 @@
       <c r="K29" s="70"/>
       <c r="L29" s="75"/>
     </row>
-    <row r="30" spans="2:12" ht="32">
+    <row r="30" spans="2:12" ht="28.8">
       <c r="B30" s="60" t="s">
         <v>323</v>
       </c>
@@ -9062,7 +9076,7 @@
       <c r="K30" s="70"/>
       <c r="L30" s="75"/>
     </row>
-    <row r="31" spans="2:12" ht="32">
+    <row r="31" spans="2:12" ht="28.8">
       <c r="B31" s="60" t="s">
         <v>324</v>
       </c>
@@ -9149,7 +9163,7 @@
       <c r="J34" s="87"/>
       <c r="K34" s="70"/>
     </row>
-    <row r="35" spans="2:13" ht="17">
+    <row r="35" spans="2:13">
       <c r="B35" s="60" t="s">
         <v>16</v>
       </c>
@@ -9174,7 +9188,7 @@
       <c r="J35" s="87"/>
       <c r="K35" s="70"/>
     </row>
-    <row r="36" spans="2:13" ht="32">
+    <row r="36" spans="2:13" ht="28.8">
       <c r="B36" s="60" t="s">
         <v>17</v>
       </c>
@@ -9290,7 +9304,7 @@
       <c r="J40" s="96"/>
       <c r="K40" s="47"/>
     </row>
-    <row r="41" spans="2:13" ht="32">
+    <row r="41" spans="2:13" ht="28.8">
       <c r="B41" s="60" t="s">
         <v>22</v>
       </c>
@@ -9318,7 +9332,7 @@
       <c r="J41" s="98"/>
       <c r="K41" s="70"/>
     </row>
-    <row r="42" spans="2:13" ht="32">
+    <row r="42" spans="2:13" ht="28.8">
       <c r="B42" s="60" t="s">
         <v>44</v>
       </c>
@@ -9343,7 +9357,7 @@
       <c r="J42" s="87"/>
       <c r="K42" s="70"/>
     </row>
-    <row r="43" spans="2:13" ht="32">
+    <row r="43" spans="2:13" ht="28.8">
       <c r="B43" s="60" t="s">
         <v>45</v>
       </c>
@@ -9381,8 +9395,12 @@
       <c r="D44" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
+      <c r="E44" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>3</v>
+      </c>
       <c r="G44" s="85"/>
       <c r="H44" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -9447,7 +9465,7 @@
       <c r="J46" s="98"/>
       <c r="K46" s="70"/>
     </row>
-    <row r="47" spans="2:13" ht="32">
+    <row r="47" spans="2:13" ht="28.8">
       <c r="B47" s="60" t="s">
         <v>47</v>
       </c>
@@ -9472,7 +9490,7 @@
       <c r="J47" s="100"/>
       <c r="K47" s="72"/>
     </row>
-    <row r="48" spans="2:13" ht="32">
+    <row r="48" spans="2:13" ht="28.8">
       <c r="B48" s="60" t="s">
         <v>25</v>
       </c>
@@ -9497,7 +9515,7 @@
       <c r="J48" s="98"/>
       <c r="K48" s="70"/>
     </row>
-    <row r="49" spans="2:11" ht="32">
+    <row r="49" spans="2:11" ht="28.8">
       <c r="B49" s="60" t="s">
         <v>26</v>
       </c>
@@ -9522,7 +9540,7 @@
       <c r="J49" s="87"/>
       <c r="K49" s="70"/>
     </row>
-    <row r="50" spans="2:11" ht="17">
+    <row r="50" spans="2:11">
       <c r="B50" s="60" t="s">
         <v>27</v>
       </c>
@@ -9547,7 +9565,7 @@
       <c r="J50" s="87"/>
       <c r="K50" s="70"/>
     </row>
-    <row r="51" spans="2:11" ht="48">
+    <row r="51" spans="2:11" ht="43.2">
       <c r="B51" s="60" t="s">
         <v>91</v>
       </c>
@@ -9613,7 +9631,7 @@
       <c r="J53" s="96"/>
       <c r="K53" s="47"/>
     </row>
-    <row r="54" spans="2:11" ht="32">
+    <row r="54" spans="2:11" ht="28.8">
       <c r="B54" s="60" t="s">
         <v>29</v>
       </c>
@@ -9638,7 +9656,7 @@
       <c r="J54" s="88"/>
       <c r="K54" s="73"/>
     </row>
-    <row r="55" spans="2:11" ht="48">
+    <row r="55" spans="2:11" ht="43.2">
       <c r="B55" s="60" t="s">
         <v>48</v>
       </c>
@@ -9666,7 +9684,7 @@
       <c r="J55" s="88"/>
       <c r="K55" s="73"/>
     </row>
-    <row r="56" spans="2:11" ht="32">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="60" t="s">
         <v>30</v>
       </c>
@@ -9691,7 +9709,7 @@
       <c r="J56" s="87"/>
       <c r="K56" s="73"/>
     </row>
-    <row r="57" spans="2:11" ht="32">
+    <row r="57" spans="2:11" ht="28.8">
       <c r="B57" s="60" t="s">
         <v>49</v>
       </c>
@@ -9716,7 +9734,7 @@
       <c r="J57" s="87"/>
       <c r="K57" s="70"/>
     </row>
-    <row r="58" spans="2:11" ht="32">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="60" t="s">
         <v>31</v>
       </c>
@@ -9810,7 +9828,7 @@
       <c r="J61" s="87"/>
       <c r="K61" s="70"/>
     </row>
-    <row r="62" spans="2:11" ht="32">
+    <row r="62" spans="2:11" ht="28.8">
       <c r="B62" s="60" t="s">
         <v>51</v>
       </c>
@@ -9835,7 +9853,7 @@
       <c r="J62" s="87"/>
       <c r="K62" s="70"/>
     </row>
-    <row r="63" spans="2:11" ht="32">
+    <row r="63" spans="2:11" ht="28.8">
       <c r="B63" s="60" t="s">
         <v>52</v>
       </c>
@@ -9913,7 +9931,7 @@
       <c r="J65" s="87"/>
       <c r="K65" s="70"/>
     </row>
-    <row r="66" spans="2:11" ht="32">
+    <row r="66" spans="2:11" ht="28.8">
       <c r="B66" s="60" t="s">
         <v>55</v>
       </c>
@@ -9938,7 +9956,7 @@
       <c r="J66" s="87"/>
       <c r="K66" s="70"/>
     </row>
-    <row r="67" spans="2:11" ht="32">
+    <row r="67" spans="2:11" ht="28.8">
       <c r="B67" s="60" t="s">
         <v>104</v>
       </c>
@@ -9963,7 +9981,7 @@
       <c r="J67" s="87"/>
       <c r="K67" s="70"/>
     </row>
-    <row r="68" spans="2:11" ht="32">
+    <row r="68" spans="2:11" ht="28.8">
       <c r="B68" s="60" t="s">
         <v>103</v>
       </c>
@@ -10010,7 +10028,7 @@
       <c r="J69" s="87"/>
       <c r="K69" s="70"/>
     </row>
-    <row r="70" spans="2:11" ht="32">
+    <row r="70" spans="2:11" ht="28.8">
       <c r="B70" s="60" t="s">
         <v>371</v>
       </c>
@@ -10032,7 +10050,7 @@
       <c r="J70" s="87"/>
       <c r="K70" s="70"/>
     </row>
-    <row r="71" spans="2:11" ht="32">
+    <row r="71" spans="2:11">
       <c r="B71" s="60" t="s">
         <v>372</v>
       </c>
@@ -10145,7 +10163,7 @@
       <c r="J75" s="87"/>
       <c r="K75" s="70"/>
     </row>
-    <row r="76" spans="2:11" ht="32">
+    <row r="76" spans="2:11" ht="28.8">
       <c r="B76" s="60" t="s">
         <v>58</v>
       </c>
@@ -10170,7 +10188,7 @@
       <c r="J76" s="87"/>
       <c r="K76" s="70"/>
     </row>
-    <row r="77" spans="2:11" ht="32">
+    <row r="77" spans="2:11" ht="28.8">
       <c r="B77" s="60" t="s">
         <v>59</v>
       </c>
@@ -10270,7 +10288,7 @@
       <c r="J80" s="87"/>
       <c r="K80" s="70"/>
     </row>
-    <row r="81" spans="2:11" ht="32">
+    <row r="81" spans="2:11" ht="28.8">
       <c r="B81" s="60" t="s">
         <v>93</v>
       </c>
@@ -10357,7 +10375,7 @@
       <c r="J86" s="110"/>
       <c r="K86" s="55"/>
     </row>
-    <row r="87" spans="2:11" ht="32">
+    <row r="87" spans="2:11" ht="28.8">
       <c r="B87" s="112" t="s">
         <v>200</v>
       </c>
@@ -10511,20 +10529,20 @@
       <selection activeCell="G8" sqref="G8:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="1.5" style="120" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="121" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="121" customWidth="1"/>
-    <col min="4" max="4" width="93.1640625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" style="120" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="120" customWidth="1"/>
-    <col min="7" max="7" width="61.83203125" style="114" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="54" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="120"/>
+    <col min="2" max="2" width="7.19921875" style="121" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="121" customWidth="1"/>
+    <col min="4" max="4" width="93.19921875" style="54" customWidth="1"/>
+    <col min="5" max="5" width="2.796875" style="120" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="120" customWidth="1"/>
+    <col min="7" max="7" width="61.796875" style="114" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="10.796875" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="119" t="s">
         <v>206</v>
       </c>
@@ -10572,7 +10590,7 @@
       <c r="G4" s="96"/>
       <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="2:8" ht="32">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="60" t="s">
         <v>113</v>
       </c>
@@ -10594,7 +10612,7 @@
       </c>
       <c r="H5" s="70"/>
     </row>
-    <row r="6" spans="2:8" ht="32">
+    <row r="6" spans="2:8" ht="28.8">
       <c r="B6" s="60" t="s">
         <v>114</v>
       </c>
@@ -10638,7 +10656,7 @@
       </c>
       <c r="H7" s="70"/>
     </row>
-    <row r="8" spans="2:8" ht="32">
+    <row r="8" spans="2:8" ht="28.8">
       <c r="B8" s="60" t="s">
         <v>116</v>
       </c>
@@ -10699,7 +10717,7 @@
       <c r="G10" s="133"/>
       <c r="H10" s="70"/>
     </row>
-    <row r="11" spans="2:8" ht="32">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="60" t="s">
         <v>119</v>
       </c>
@@ -10720,7 +10738,7 @@
       </c>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="2:8" ht="17">
+    <row r="12" spans="2:8">
       <c r="B12" s="60" t="s">
         <v>120</v>
       </c>
@@ -10773,7 +10791,7 @@
       <c r="G14" s="96"/>
       <c r="H14" s="47"/>
     </row>
-    <row r="15" spans="2:8" ht="32">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="61" t="s">
         <v>60</v>
       </c>
@@ -10806,7 +10824,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="47"/>
     </row>
-    <row r="17" spans="2:8" ht="48">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="60" t="s">
         <v>121</v>
       </c>
@@ -10828,7 +10846,7 @@
       </c>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8" ht="64">
+    <row r="18" spans="2:8" ht="57.6">
       <c r="B18" s="60" t="s">
         <v>122</v>
       </c>
@@ -10860,7 +10878,7 @@
       <c r="G19" s="96"/>
       <c r="H19" s="47"/>
     </row>
-    <row r="20" spans="2:8" ht="32">
+    <row r="20" spans="2:8" ht="28.8">
       <c r="B20" s="60" t="s">
         <v>397</v>
       </c>
@@ -10919,7 +10937,7 @@
       <c r="G24" s="110"/>
       <c r="H24" s="55"/>
     </row>
-    <row r="25" spans="2:8" ht="32">
+    <row r="25" spans="2:8" ht="28.8">
       <c r="B25" s="112" t="s">
         <v>200</v>
       </c>
@@ -11057,11 +11075,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="119.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="5" max="5" width="119.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11270,7 +11288,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409" customHeight="1">
+    <row r="15" spans="1:5" ht="409.05" customHeight="1">
       <c r="A15" s="127" t="s">
         <v>102</v>
       </c>
@@ -11304,7 +11322,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="85">
+    <row r="17" spans="1:5" ht="78">
       <c r="A17" s="127" t="s">
         <v>102</v>
       </c>
@@ -11321,7 +11339,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51">
+    <row r="18" spans="1:5" ht="46.8">
       <c r="A18" s="127" t="s">
         <v>102</v>
       </c>
@@ -11338,7 +11356,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51">
+    <row r="19" spans="1:5" ht="46.8">
       <c r="A19" s="127" t="s">
         <v>102</v>
       </c>
@@ -11355,7 +11373,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="119">
+    <row r="20" spans="1:5" ht="109.2">
       <c r="A20" s="127" t="s">
         <v>124</v>
       </c>
@@ -11372,7 +11390,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17">
+    <row r="21" spans="1:5">
       <c r="A21" s="127" t="s">
         <v>124</v>
       </c>
@@ -11389,7 +11407,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="51">
+    <row r="22" spans="1:5" ht="46.8">
       <c r="A22" s="127" t="s">
         <v>124</v>
       </c>
@@ -11406,7 +11424,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17">
+    <row r="23" spans="1:5">
       <c r="A23" s="127" t="s">
         <v>124</v>
       </c>
@@ -11423,7 +11441,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17">
+    <row r="24" spans="1:5">
       <c r="A24" s="127" t="s">
         <v>124</v>
       </c>
@@ -11440,7 +11458,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51">
+    <row r="25" spans="1:5" ht="46.8">
       <c r="A25" s="127" t="s">
         <v>124</v>
       </c>
@@ -11457,7 +11475,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="255">
+    <row r="26" spans="1:5" ht="234">
       <c r="A26" s="130" t="s">
         <v>413</v>
       </c>
@@ -11495,11 +11513,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="30.5" style="12" customWidth="1"/>
     <col min="2" max="4" width="11" style="12"/>
-    <col min="5" max="5" width="70.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="70.69921875" style="12" customWidth="1"/>
     <col min="6" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
@@ -11612,7 +11630,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34">
+    <row r="8" spans="1:5" ht="31.2">
       <c r="A8" s="132" t="s">
         <v>124</v>
       </c>
